--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9376,7 +9377,6 @@
           <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>63.23</t>
@@ -9408,7 +9408,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -9440,7 +9439,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -9456,6 +9454,5072 @@
       </c>
       <c r="H100" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>360.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.3214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.0492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>131.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.8445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.8075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.1467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.0835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.0265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.4711</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.2342</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5733</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.2604</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.9386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6909</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1475</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0294</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9889</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8323</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7759</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7684</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7502</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7402</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4458</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14525,4 +14526,3174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1697</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3698</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8825</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8633</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0617</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9640</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17696,4 +17697,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92.06999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17705,7 +17706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17716,17 +17717,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17736,14 +17757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>92.06999999999999</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -17752,14 +17795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>132</v>
-      </c>
-      <c r="D3" t="n">
-        <v>133.63</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1866</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -17768,14 +17833,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>95.37</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>104.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17784,13 +17871,5693 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5401</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3725</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3445</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1911</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5588</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4696</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2305</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6918</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6917</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000312</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安沪深300增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000313</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安沪深300增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>57.55</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.06999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>132</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>136</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>154.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23456,7 +23457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23467,17 +23468,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23487,14 +23508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>92.44</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -23503,14 +23546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92.06999999999999</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.6837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -23519,14 +23584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>132</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.63</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -23535,14 +23622,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.37</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -23551,13 +23660,1421 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1967</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.06999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>132</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>136</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>154.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24957,7 +24958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24968,17 +24969,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24988,14 +25009,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.87</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -25004,14 +25047,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>150</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92.44</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -25020,14 +25085,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.06999999999999</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -25036,14 +25123,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>132</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.63</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -25052,14 +25161,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95.37</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -25068,13 +25199,1587 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>150</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.06999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>132</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>136</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>154.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
+++ b/数据整理/stocks/A股/创业板/300413-芒果超媒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>47.2</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>54.87</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>92.44</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>92.06999999999999</v>
+        <v>92.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>133.63</v>
+        <v>92.06999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>95.37</v>
+        <v>133.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>136</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>154.2</v>
       </c>
     </row>
@@ -600,6 +617,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +5190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9537,7 +10940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12707,7 +14110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17773,7 +19176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21570,7 +22973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
